--- a/Makita/sbert/output/tables/metrics_sim_all.xlsx
+++ b/Makita/sbert/output/tables/metrics_sim_all.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>file_name</t>
   </si>
@@ -43,31 +43,7 @@
     <t>atd</t>
   </si>
   <si>
-    <t>metrics_sim_van_de_Schoot_2018_logistic_sbertabsmin_max_double.json</t>
-  </si>
-  <si>
-    <t>metrics_sim_van_de_Schoot_2018_logistic_sbertcdf_max_double.json</t>
-  </si>
-  <si>
-    <t>metrics_sim_van_de_Schoot_2018_logistic_sbertminmax_max_double.json</t>
-  </si>
-  <si>
-    <t>metrics_sim_van_de_Schoot_2018_logistic_sbertsigmoid_max_double.json</t>
-  </si>
-  <si>
-    <t>metrics_sim_van_de_Schoot_2018_logistic_sbert_max_double.json</t>
-  </si>
-  <si>
-    <t>metrics_sim_van_de_Schoot_2018_nb_sbertabsmin_max_double.json</t>
-  </si>
-  <si>
-    <t>metrics_sim_van_de_Schoot_2018_nb_sbertcdf_max_double.json</t>
-  </si>
-  <si>
-    <t>metrics_sim_van_de_Schoot_2018_nb_sbertminmax_max_double.json</t>
-  </si>
-  <si>
-    <t>metrics_sim_van_de_Schoot_2018_nb_sbertsigmoid_max_double.json</t>
+    <t>metrics_sim_van_de_Schoot_2018_nb_sbert_l2_normalize_minmax_max_double.json</t>
   </si>
 </sst>
 </file>
@@ -425,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,7 +447,7 @@
         <v>0.9459459459459459</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -483,269 +459,13 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0.8412593571114046</v>
+        <v>0.8476442095992954</v>
       </c>
       <c r="I2">
         <v>0.8378378378378378</v>
       </c>
       <c r="J2">
-        <v>136.4594594594595</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>0.9459459459459459</v>
-      </c>
-      <c r="D3">
-        <v>0.972972972972973</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>0.8542492294143549</v>
-      </c>
-      <c r="I3">
-        <v>0.8378378378378378</v>
-      </c>
-      <c r="J3">
-        <v>152.4864864864865</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>0.9459459459459459</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0.8707617789520036</v>
-      </c>
-      <c r="I4">
-        <v>0.8378378378378378</v>
-      </c>
-      <c r="J4">
-        <v>126.5675675675676</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>0.9459459459459459</v>
-      </c>
-      <c r="D5">
-        <v>0.972972972972973</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>0.853588727432849</v>
-      </c>
-      <c r="I5">
-        <v>0.8378378378378378</v>
-      </c>
-      <c r="J5">
-        <v>154.9459459459459</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>0.972972972972973</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>0.8696609423161603</v>
-      </c>
-      <c r="I6">
-        <v>0.8648648648648649</v>
-      </c>
-      <c r="J6">
-        <v>138.7837837837838</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>0.9459459459459459</v>
-      </c>
-      <c r="D7">
-        <v>0.972972972972973</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0.8434610303830912</v>
-      </c>
-      <c r="I7">
-        <v>0.8378378378378378</v>
-      </c>
-      <c r="J7">
-        <v>126.972972972973</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <v>0.918918918918919</v>
-      </c>
-      <c r="D8">
-        <v>0.972972972972973</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>0.8238661382650815</v>
-      </c>
-      <c r="I8">
-        <v>0.8108108108108109</v>
-      </c>
-      <c r="J8">
-        <v>152.8108108108108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9">
-        <v>0.9459459459459459</v>
-      </c>
-      <c r="D9">
-        <v>0.972972972972973</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>0.8476442095992954</v>
-      </c>
-      <c r="I9">
-        <v>0.8378378378378378</v>
-      </c>
-      <c r="J9">
         <v>130.4594594594595</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>0.9459459459459459</v>
-      </c>
-      <c r="D10">
-        <v>0.972972972972973</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>0.8405988551298987</v>
-      </c>
-      <c r="I10">
-        <v>0.8378378378378378</v>
-      </c>
-      <c r="J10">
-        <v>143.2972972972973</v>
       </c>
     </row>
   </sheetData>
